--- a/ExcelAggregator/control.xlsx
+++ b/ExcelAggregator/control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GalievLR\Documents\GitHub\ExcelAggregator\ExcelAggregator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01A1A5-C404-4E21-8690-619E955A35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF75CB4-65F4-48DE-AD40-BCC535610645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,104 +408,104 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
